--- a/doc/thesis/pictures/resultate/loesung1/loesung1-12/resultate.xlsx
+++ b/doc/thesis/pictures/resultate/loesung1/loesung1-12/resultate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
   <si>
     <t>Average Line Size (Bytes)</t>
   </si>
@@ -41,6 +41,21 @@
   </si>
   <si>
     <t>DCT abschliessende Variante</t>
+  </si>
+  <si>
+    <t>DCT</t>
+  </si>
+  <si>
+    <t>Ableitung+DCT</t>
+  </si>
+  <si>
+    <t>Ableitung+PCA+DCT</t>
+  </si>
+  <si>
+    <t>Ableitung+DCT+Kodierung</t>
+  </si>
+  <si>
+    <t>Randbeh.+DCT+Kodierung</t>
   </si>
 </sst>
 </file>
@@ -140,7 +155,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="7"/>
+            <c:size val="9"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -319,6 +334,452 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DCT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$P$3:$P$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>204.6300833</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>169.7546667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>153.21258330000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>142.51891670000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>130.02858330000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>119.72441670000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>108.5715</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>101.9916667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>78.766999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>71.584583330000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$R$3:$R$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>449723.91440000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>653591.89110000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>810359.03760000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>942499.82209999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1169761.209</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1462891.159</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1884433.7320000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2190738.4210000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4113359.1209999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5071425.2920000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ableitung+DCT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$T$3:$T$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>78.371583330000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73.060333330000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69.059083330000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65.945750000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62.968416670000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60.366333330000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58.345916670000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56.53533333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$V$3:$V$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>3202252.93</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3760484.56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4302038.398</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4829482.824</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5350825.8820000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5866815.9309999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6389853.6789999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6881472.1720000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$AB$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ableitung+DCT+Kodierung</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$AB$3:$AB$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>40.569749999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.28083333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.347499999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.687166670000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.308</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.069666669999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.96841667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$AD$3:$AD$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>4346251.6789999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4840830.9850000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5330448.1900000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5825742.9929999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6324581.233</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6797788.3449999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7251887.3789999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$AF$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Randbeh.+DCT+Kodierung</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$AF$3:$AF$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>31.957583329999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.0505</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.203416669999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.456916669999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.767583330000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.147916670000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27.595333329999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27.078583330000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26.613416669999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$AH$3:$AH$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>5093256.8320000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5335306.9709999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5553407.7369999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5763029.4359999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5957467.7209999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6157314.2479999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6354042.4630000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6539010.5460000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6707823.0999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -327,11 +788,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="353249456"/>
-        <c:axId val="353252592"/>
+        <c:axId val="193470720"/>
+        <c:axId val="193471112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="353249456"/>
+        <c:axId val="193470720"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -454,12 +915,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="353252592"/>
+        <c:crossAx val="193471112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="353252592"/>
+        <c:axId val="193471112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -572,7 +1033,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="353249456"/>
+        <c:crossAx val="193470720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -1247,13 +1708,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>185056</xdr:colOff>
+      <xdr:colOff>185055</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>160564</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>555171</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>217713</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>119743</xdr:rowOff>
     </xdr:to>
@@ -1564,25 +2025,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:AH12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.5546875" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1598,8 +2059,23 @@
       <c r="N1" t="s">
         <v>6</v>
       </c>
+      <c r="P1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1615,8 +2091,53 @@
       <c r="J2" t="s">
         <v>0</v>
       </c>
+      <c r="P2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>61.603666666666697</v>
       </c>
@@ -1644,8 +2165,53 @@
       <c r="O3">
         <v>858.70933333333301</v>
       </c>
+      <c r="P3">
+        <v>204.6300833</v>
+      </c>
+      <c r="Q3">
+        <v>27514754.170000002</v>
+      </c>
+      <c r="R3">
+        <v>449723.91440000001</v>
+      </c>
+      <c r="T3">
+        <v>78.371583330000007</v>
+      </c>
+      <c r="U3">
+        <v>44302159.600000001</v>
+      </c>
+      <c r="V3">
+        <v>3202252.93</v>
+      </c>
+      <c r="X3">
+        <v>79.536583333333297</v>
+      </c>
+      <c r="Y3">
+        <v>59420016.1107926</v>
+      </c>
+      <c r="Z3">
+        <v>3952389.00574737</v>
+      </c>
+      <c r="AB3">
+        <v>40.569749999999999</v>
+      </c>
+      <c r="AC3">
+        <v>62862272.060000002</v>
+      </c>
+      <c r="AD3">
+        <v>4346251.6789999995</v>
+      </c>
+      <c r="AF3">
+        <v>31.957583329999999</v>
+      </c>
+      <c r="AG3">
+        <v>64141745.170000002</v>
+      </c>
+      <c r="AH3">
+        <v>5093256.8320000004</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="H4">
         <f>MAX(A3:A5,D3:D5)</f>
         <v>61.603666666666697</v>
@@ -1658,6 +2224,346 @@
       </c>
       <c r="L4">
         <v>30014198.854871798</v>
+      </c>
+      <c r="P4">
+        <v>169.7546667</v>
+      </c>
+      <c r="Q4">
+        <v>36374800.020000003</v>
+      </c>
+      <c r="R4">
+        <v>653591.89110000001</v>
+      </c>
+      <c r="T4">
+        <v>73.060333330000006</v>
+      </c>
+      <c r="U4">
+        <v>55251620.469999999</v>
+      </c>
+      <c r="V4">
+        <v>3760484.56</v>
+      </c>
+      <c r="X4">
+        <v>76.28425</v>
+      </c>
+      <c r="Y4">
+        <v>59550351.9328686</v>
+      </c>
+      <c r="Z4">
+        <v>4414604.3545020502</v>
+      </c>
+      <c r="AB4">
+        <v>38.28083333</v>
+      </c>
+      <c r="AC4">
+        <v>70724122.5</v>
+      </c>
+      <c r="AD4">
+        <v>4840830.9850000003</v>
+      </c>
+      <c r="AF4">
+        <v>31.0505</v>
+      </c>
+      <c r="AG4">
+        <v>63440833.979999997</v>
+      </c>
+      <c r="AH4">
+        <v>5335306.9709999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="P5">
+        <v>153.21258330000001</v>
+      </c>
+      <c r="Q5">
+        <v>40971894.770000003</v>
+      </c>
+      <c r="R5">
+        <v>810359.03760000004</v>
+      </c>
+      <c r="T5">
+        <v>69.059083330000007</v>
+      </c>
+      <c r="U5">
+        <v>65147438.240000002</v>
+      </c>
+      <c r="V5">
+        <v>4302038.398</v>
+      </c>
+      <c r="X5">
+        <v>73.441749999999999</v>
+      </c>
+      <c r="Y5">
+        <v>68219923.708169103</v>
+      </c>
+      <c r="Z5">
+        <v>4868640.6526112799</v>
+      </c>
+      <c r="AB5">
+        <v>36.347499999999997</v>
+      </c>
+      <c r="AC5">
+        <v>70239117.609999999</v>
+      </c>
+      <c r="AD5">
+        <v>5330448.1900000004</v>
+      </c>
+      <c r="AF5">
+        <v>30.203416669999999</v>
+      </c>
+      <c r="AG5">
+        <v>70094495.430000007</v>
+      </c>
+      <c r="AH5">
+        <v>5553407.7369999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="P6">
+        <v>142.51891670000001</v>
+      </c>
+      <c r="Q6">
+        <v>44554446.399999999</v>
+      </c>
+      <c r="R6">
+        <v>942499.82209999999</v>
+      </c>
+      <c r="T6">
+        <v>65.945750000000004</v>
+      </c>
+      <c r="U6">
+        <v>73130925.120000005</v>
+      </c>
+      <c r="V6">
+        <v>4829482.824</v>
+      </c>
+      <c r="X6">
+        <v>71.080833333333302</v>
+      </c>
+      <c r="Y6">
+        <v>78731745.368155196</v>
+      </c>
+      <c r="Z6">
+        <v>5312576.9486709302</v>
+      </c>
+      <c r="AB6">
+        <v>34.687166670000003</v>
+      </c>
+      <c r="AC6">
+        <v>78113660.090000004</v>
+      </c>
+      <c r="AD6">
+        <v>5825742.9929999998</v>
+      </c>
+      <c r="AF6">
+        <v>29.456916669999998</v>
+      </c>
+      <c r="AG6">
+        <v>68087725.780000001</v>
+      </c>
+      <c r="AH6">
+        <v>5763029.4359999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="P7">
+        <v>130.02858330000001</v>
+      </c>
+      <c r="Q7">
+        <v>51530979.439999998</v>
+      </c>
+      <c r="R7">
+        <v>1169761.209</v>
+      </c>
+      <c r="T7">
+        <v>62.968416670000003</v>
+      </c>
+      <c r="U7">
+        <v>71390982.340000004</v>
+      </c>
+      <c r="V7">
+        <v>5350825.8820000002</v>
+      </c>
+      <c r="X7">
+        <v>69.167749999999998</v>
+      </c>
+      <c r="Y7">
+        <v>80288069.010004595</v>
+      </c>
+      <c r="Z7">
+        <v>5757110.6414862201</v>
+      </c>
+      <c r="AB7">
+        <v>33.308</v>
+      </c>
+      <c r="AC7">
+        <v>89903450.950000003</v>
+      </c>
+      <c r="AD7">
+        <v>6324581.233</v>
+      </c>
+      <c r="AF7">
+        <v>28.767583330000001</v>
+      </c>
+      <c r="AG7">
+        <v>69758350.950000003</v>
+      </c>
+      <c r="AH7">
+        <v>5957467.7209999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="P8">
+        <v>119.72441670000001</v>
+      </c>
+      <c r="Q8">
+        <v>59938598.030000001</v>
+      </c>
+      <c r="R8">
+        <v>1462891.159</v>
+      </c>
+      <c r="T8">
+        <v>60.366333330000003</v>
+      </c>
+      <c r="U8">
+        <v>80274076.599999994</v>
+      </c>
+      <c r="V8">
+        <v>5866815.9309999999</v>
+      </c>
+      <c r="X8">
+        <v>67.419333333333299</v>
+      </c>
+      <c r="Y8">
+        <v>83826824.771045998</v>
+      </c>
+      <c r="Z8">
+        <v>6201678.84946445</v>
+      </c>
+      <c r="AB8">
+        <v>32.069666669999997</v>
+      </c>
+      <c r="AC8">
+        <v>91073317.579999998</v>
+      </c>
+      <c r="AD8">
+        <v>6797788.3449999997</v>
+      </c>
+      <c r="AF8">
+        <v>28.147916670000001</v>
+      </c>
+      <c r="AG8">
+        <v>72729321.909999996</v>
+      </c>
+      <c r="AH8">
+        <v>6157314.2479999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="P9">
+        <v>108.5715</v>
+      </c>
+      <c r="Q9">
+        <v>73891110.950000003</v>
+      </c>
+      <c r="R9">
+        <v>1884433.7320000001</v>
+      </c>
+      <c r="T9">
+        <v>58.345916670000001</v>
+      </c>
+      <c r="U9">
+        <v>92213162.489999995</v>
+      </c>
+      <c r="V9">
+        <v>6389853.6789999995</v>
+      </c>
+      <c r="X9">
+        <v>66.128666666666703</v>
+      </c>
+      <c r="Y9">
+        <v>87414790.235998705</v>
+      </c>
+      <c r="Z9">
+        <v>6598973.8544339798</v>
+      </c>
+      <c r="AB9">
+        <v>30.96841667</v>
+      </c>
+      <c r="AC9">
+        <v>103191919.2</v>
+      </c>
+      <c r="AD9">
+        <v>7251887.3789999997</v>
+      </c>
+      <c r="AF9">
+        <v>27.595333329999999</v>
+      </c>
+      <c r="AG9">
+        <v>70898774.950000003</v>
+      </c>
+      <c r="AH9">
+        <v>6354042.4630000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="P10">
+        <v>101.9916667</v>
+      </c>
+      <c r="Q10">
+        <v>77937319.150000006</v>
+      </c>
+      <c r="R10">
+        <v>2190738.4210000001</v>
+      </c>
+      <c r="T10">
+        <v>56.53533333</v>
+      </c>
+      <c r="U10">
+        <v>93475660.299999997</v>
+      </c>
+      <c r="V10">
+        <v>6881472.1720000003</v>
+      </c>
+      <c r="AF10">
+        <v>27.078583330000001</v>
+      </c>
+      <c r="AG10">
+        <v>71781495.040000007</v>
+      </c>
+      <c r="AH10">
+        <v>6539010.5460000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="P11">
+        <v>78.766999999999996</v>
+      </c>
+      <c r="Q11">
+        <v>121113123.90000001</v>
+      </c>
+      <c r="R11">
+        <v>4113359.1209999998</v>
+      </c>
+      <c r="AF11">
+        <v>26.613416669999999</v>
+      </c>
+      <c r="AG11">
+        <v>76720129.980000004</v>
+      </c>
+      <c r="AH11">
+        <v>6707823.0999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="P12">
+        <v>71.584583330000001</v>
+      </c>
+      <c r="Q12">
+        <v>140686357.5</v>
+      </c>
+      <c r="R12">
+        <v>5071425.2920000004</v>
       </c>
     </row>
   </sheetData>

--- a/doc/thesis/pictures/resultate/loesung1/loesung1-12/resultate.xlsx
+++ b/doc/thesis/pictures/resultate/loesung1/loesung1-12/resultate.xlsx
@@ -37,12 +37,6 @@
     <t>Ist-Zustand</t>
   </si>
   <si>
-    <t>Adaptives Subsampling</t>
-  </si>
-  <si>
-    <t>DCT abschliessende Variante</t>
-  </si>
-  <si>
     <t>DCT</t>
   </si>
   <si>
@@ -56,6 +50,12 @@
   </si>
   <si>
     <t>Randbeh.+DCT+Kodierung</t>
+  </si>
+  <si>
+    <t>A. Subsampling</t>
+  </si>
+  <si>
+    <t>DCT abschl. Variante</t>
   </si>
 </sst>
 </file>
@@ -139,7 +139,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DCT abschliessende Variante</c:v>
+                  <c:v>DCT abschl. Variante</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -206,7 +206,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Adaptives Subsampling</c:v>
+                  <c:v>A. Subsampling</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -788,11 +788,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="193470720"/>
-        <c:axId val="193471112"/>
+        <c:axId val="262319192"/>
+        <c:axId val="262325464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="193470720"/>
+        <c:axId val="262319192"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -915,12 +915,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193471112"/>
+        <c:crossAx val="262325464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="193471112"/>
+        <c:axId val="262325464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1033,7 +1033,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193470720"/>
+        <c:crossAx val="262319192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -1713,10 +1713,10 @@
       <xdr:rowOff>160564</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>217713</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>119743</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2027,8 +2027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2045,7 +2045,7 @@
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
@@ -2054,25 +2054,25 @@
         <v>5</v>
       </c>
       <c r="L1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
         <v>6</v>
       </c>
       <c r="P1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" t="s">
+        <v>8</v>
+      </c>
+      <c r="X1" t="s">
         <v>9</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AB1" t="s">
         <v>10</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AF1" t="s">
         <v>11</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">

--- a/doc/thesis/pictures/resultate/loesung1/loesung1-12/resultate.xlsx
+++ b/doc/thesis/pictures/resultate/loesung1/loesung1-12/resultate.xlsx
@@ -788,11 +788,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="262319192"/>
-        <c:axId val="262325464"/>
+        <c:axId val="254714520"/>
+        <c:axId val="254716088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="262319192"/>
+        <c:axId val="254714520"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -822,10 +822,7 @@
                 <a:pPr>
                   <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -833,16 +830,28 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-CH" sz="1800"/>
+                  <a:rPr lang="de-CH" sz="1800">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Median </a:t>
                 </a:r>
               </a:p>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800"/>
+                  <a:defRPr sz="1800">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-CH" sz="1800"/>
+                  <a:rPr lang="de-CH" sz="1800">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Bytes pro Feldlinie</a:t>
                 </a:r>
               </a:p>
@@ -864,10 +873,7 @@
               <a:pPr>
                 <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -902,10 +908,7 @@
             <a:pPr>
               <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -915,12 +918,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="262325464"/>
+        <c:crossAx val="254716088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="262325464"/>
+        <c:axId val="254716088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -961,7 +964,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-CH" sz="1800"/>
-                  <a:t>Standardabweichung (Meter)</a:t>
+                  <a:t>Standardabweichung (KM)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1020,10 +1023,7 @@
             <a:pPr>
               <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1033,41 +1033,11 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="262319192"/>
+        <c:crossAx val="254714520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
           <c:builtInUnit val="thousands"/>
-          <c:dispUnitsLbl>
-            <c:layout/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
-          </c:dispUnitsLbl>
         </c:dispUnits>
       </c:valAx>
       <c:spPr>
@@ -1096,10 +1066,7 @@
           <a:pPr>
             <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2028,7 +1995,7 @@
   <dimension ref="A1:AH12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/doc/thesis/pictures/resultate/loesung1/loesung1-12/resultate.xlsx
+++ b/doc/thesis/pictures/resultate/loesung1/loesung1-12/resultate.xlsx
@@ -788,11 +788,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="254714520"/>
-        <c:axId val="254716088"/>
+        <c:axId val="234693552"/>
+        <c:axId val="234697864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="254714520"/>
+        <c:axId val="234693552"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -918,12 +918,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254716088"/>
+        <c:crossAx val="234697864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="254716088"/>
+        <c:axId val="234697864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -952,10 +952,7 @@
                 <a:pPr>
                   <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -963,7 +960,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-CH" sz="1800"/>
+                  <a:rPr lang="de-CH" sz="1800">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Standardabweichung (KM)</a:t>
                 </a:r>
               </a:p>
@@ -985,10 +986,7 @@
               <a:pPr>
                 <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1033,7 +1031,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254714520"/>
+        <c:crossAx val="234693552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -1109,7 +1107,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>

--- a/doc/thesis/pictures/resultate/loesung1/loesung1-12/resultate.xlsx
+++ b/doc/thesis/pictures/resultate/loesung1/loesung1-12/resultate.xlsx
@@ -788,14 +788,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="234693552"/>
-        <c:axId val="234697864"/>
+        <c:axId val="273077920"/>
+        <c:axId val="273078312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="234693552"/>
+        <c:axId val="273077920"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="2"/>
           <c:orientation val="minMax"/>
+          <c:min val="16"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -918,12 +919,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="234697864"/>
+        <c:crossAx val="273078312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="234697864"/>
+        <c:axId val="273078312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1031,7 +1032,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="234693552"/>
+        <c:crossAx val="273077920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -1992,7 +1993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
